--- a/images_t.xlsx
+++ b/images_t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\corsi_blocks-master\corsi_blocks-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\new\corsi_blocks-master\corsi_blocks-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C80E30-5541-46AE-92AB-41A4C840E238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B7A89-605D-4BB7-AE1A-058E3D79657E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,25 +30,25 @@
     <t>photo</t>
   </si>
   <si>
-    <t>Images/photoI.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoII.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoIII.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoIV.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoV.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoVI.jpg</t>
-  </si>
-  <si>
-    <t>Images/photoVII.jpg</t>
+    <t>Images/photoI.png</t>
+  </si>
+  <si>
+    <t>Images/photoII.png</t>
+  </si>
+  <si>
+    <t>Images/photoIII.png</t>
+  </si>
+  <si>
+    <t>Images/photoIV.png</t>
+  </si>
+  <si>
+    <t>Images/photoV.png</t>
+  </si>
+  <si>
+    <t>Images/photoVII.png</t>
+  </si>
+  <si>
+    <t>Images/photoVI.png</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,52 +369,52 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
